--- a/biology/Zoologie/Erora_biblia/Erora_biblia.xlsx
+++ b/biology/Zoologie/Erora_biblia/Erora_biblia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Erora biblia  est une espèce d'insectes lépidoptères de la famille des Lycaenidae, de la sous-famille des Theclinae, du genre Erora.
 </t>
@@ -511,10 +523,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Erora biblia a été décrit par William Chapman Hewitson en 1868 sous le nom initial de Thecla biblia.
-Synonyme : Thecla oleris Druce, 1907[1].
+Synonyme : Thecla oleris Druce, 1907.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Erora biblia est un petit papillon aux antennes et aux ailes annelées de marron et de blanc, sans queue.
 Le dessus est marron très largement suffusé de bleu métallisé.
@@ -573,12 +589,15 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Plantes hôtes</t>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Erora biblia est présent au Brésil, au Venezuela, et au Paraguay et en Guyane,.
+</t>
         </is>
       </c>
     </row>
@@ -608,10 +627,13 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Erora biblia est présent au Brésil, au Venezuela, et au Paraguay et en Guyane[1],[2].
-Biotope
-Protection
-Pas de statut de protection particulier.
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 Sur les autres projets Wikimedia :
 Erora biblia, sur Wikimedia CommonsErora biblia, sur Wikispecies
 </t>
